--- a/ParameterTable.xlsx
+++ b/ParameterTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kezhi\MyCode!!!\Tracking\PF_Video_EN_Worm_Kezhi\PF_Video_EN\Tracking_Hypo_15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kezhi\MyCode!!!\Tracking\PF_Video_EN_Worm_Kezhi\PF_Video_EN\Tracking_Hypo_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Frenet_Coil</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>var_speed</t>
+  </si>
+  <si>
+    <t>Frenet_2304(2)</t>
+  </si>
+  <si>
+    <t>Frenet_2704</t>
+  </si>
+  <si>
+    <t>Frenet_2304</t>
+  </si>
+  <si>
+    <t>Video_Test3</t>
+  </si>
+  <si>
+    <t>Video_Test4</t>
+  </si>
+  <si>
+    <t>Video_Test5</t>
   </si>
 </sst>
 </file>
@@ -410,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -552,6 +570,78 @@
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ParameterTable.xlsx
+++ b/ParameterTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kezhi\MyCode!!!\Tracking\PF_Video_EN_Worm_Kezhi\PF_Video_EN\Tracking_Hypo_16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kezhi\MyCode!!!\Tracking\PF_Video_EN_Worm_Kezhi\PF_Video_EN\Tracking_Hypo_20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Frenet_Coil</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>Video_Test5</t>
+  </si>
+  <si>
+    <t>frenet(1251)_0406</t>
+  </si>
+  <si>
+    <t>test_1251.avi</t>
+  </si>
+  <si>
+    <t>(120,50)</t>
+  </si>
+  <si>
+    <t>frenet(7818)_1506</t>
+  </si>
+  <si>
+    <t>test_7818.avi</t>
   </si>
 </sst>
 </file>
@@ -428,15 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -643,6 +659,52 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4.5</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4.5</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
